--- a/Banco Central/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
+++ b/Banco Central/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
   <si>
     <t>Serie</t>
   </si>
@@ -656,6 +656,24 @@
   </si>
   <si>
     <t>28-07-2021</t>
+  </si>
+  <si>
+    <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>31-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1031,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E210"/>
+  <dimension ref="A1:E216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4576,10 +4594,112 @@
       <c r="A210" t="s">
         <v>213</v>
       </c>
+      <c r="B210">
+        <v>187</v>
+      </c>
+      <c r="C210">
+        <v>628</v>
+      </c>
       <c r="D210">
         <v>3940</v>
       </c>
       <c r="E210">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>214</v>
+      </c>
+      <c r="B211">
+        <v>187</v>
+      </c>
+      <c r="C211">
+        <v>628</v>
+      </c>
+      <c r="D211">
+        <v>3940</v>
+      </c>
+      <c r="E211">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>215</v>
+      </c>
+      <c r="B212">
+        <v>187</v>
+      </c>
+      <c r="C212">
+        <v>628</v>
+      </c>
+      <c r="D212">
+        <v>3940</v>
+      </c>
+      <c r="E212">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>216</v>
+      </c>
+      <c r="B213">
+        <v>187</v>
+      </c>
+      <c r="C213">
+        <v>628</v>
+      </c>
+      <c r="D213">
+        <v>3940</v>
+      </c>
+      <c r="E213">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>217</v>
+      </c>
+      <c r="B214">
+        <v>187</v>
+      </c>
+      <c r="C214">
+        <v>628</v>
+      </c>
+      <c r="D214">
+        <v>3940</v>
+      </c>
+      <c r="E214">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>218</v>
+      </c>
+      <c r="B215">
+        <v>187</v>
+      </c>
+      <c r="C215">
+        <v>628</v>
+      </c>
+      <c r="D215">
+        <v>3940</v>
+      </c>
+      <c r="E215">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>219</v>
+      </c>
+      <c r="D216">
+        <v>3940</v>
+      </c>
+      <c r="E216">
         <v>30</v>
       </c>
     </row>

--- a/Banco Central/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
+++ b/Banco Central/5/7/3/Programa especial de compra de activos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <si>
     <t>Serie</t>
   </si>
@@ -674,6 +674,9 @@
   </si>
   <si>
     <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1034,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E216"/>
+  <dimension ref="A1:E217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4696,10 +4699,27 @@
       <c r="A216" t="s">
         <v>219</v>
       </c>
+      <c r="B216">
+        <v>187</v>
+      </c>
+      <c r="C216">
+        <v>628</v>
+      </c>
       <c r="D216">
         <v>3940</v>
       </c>
       <c r="E216">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>220</v>
+      </c>
+      <c r="D217">
+        <v>3940</v>
+      </c>
+      <c r="E217">
         <v>30</v>
       </c>
     </row>
